--- a/experiment/SIPLIB_experiments.xlsx
+++ b/experiment/SIPLIB_experiments.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/celsloaner/GitLab/SIPLIB/experiment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{4D9FAFB3-04F3-DD45-8A7D-BB348EE59EE5}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{1C4D2AB5-345B-BC4C-9A53-FBC32AD6E45D}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1040" yWindow="460" windowWidth="24560" windowHeight="15540" tabRatio="500" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1040" yWindow="460" windowWidth="24560" windowHeight="15540" tabRatio="500" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DOE" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="167">
   <si>
     <t>Computing resource</t>
   </si>
@@ -45,28 +45,7 @@
     <t>Solver</t>
   </si>
   <si>
-    <t>CPLEX 12.8 (dsp de), DSP (dsp dd)</t>
-  </si>
-  <si>
-    <t>Solver setting</t>
-  </si>
-  <si>
-    <t>CPLEX</t>
-  </si>
-  <si>
     <t>Default with 1 thread</t>
-  </si>
-  <si>
-    <t>DSP</t>
-  </si>
-  <si>
-    <t>Master algo</t>
-  </si>
-  <si>
-    <t>interior point</t>
-  </si>
-  <si>
-    <t>MIP time lim</t>
   </si>
   <si>
     <t>category</t>
@@ -908,9 +887,6 @@
     <t>easy</t>
   </si>
   <si>
-    <t>&gt;1% in 700s</t>
-  </si>
-  <si>
     <t>easy (&gt;1% in 60s)</t>
   </si>
   <si>
@@ -1019,19 +995,10 @@
     <t>error</t>
   </si>
   <si>
-    <t>1s or 3s or 300s</t>
-  </si>
-  <si>
     <t>terminate in 1 iter with 60s, but much preprocessing time</t>
   </si>
   <si>
     <t>1.12% in 2300s (2499681)</t>
-  </si>
-  <si>
-    <t>1.16% in 4900s, 10000s</t>
-  </si>
-  <si>
-    <t>23% in 9000s</t>
   </si>
   <si>
     <r>
@@ -1075,6 +1042,69 @@
   </si>
   <si>
     <t>optimal in 3000s (db: -26561, pb: -19164)</t>
+  </si>
+  <si>
+    <t>Master algo: interior point</t>
+  </si>
+  <si>
+    <t>MIP time lim: 3s or 300s</t>
+  </si>
+  <si>
+    <t>DSP-DD</t>
+  </si>
+  <si>
+    <t>CPLEX 12.8</t>
+  </si>
+  <si>
+    <t>DCAP_3_4_2_1000</t>
+  </si>
+  <si>
+    <t>0.22% in 20s</t>
+  </si>
+  <si>
+    <t>SSLP_15_45_2000</t>
+  </si>
+  <si>
+    <t>DCSP_3_4_2_5000</t>
+  </si>
+  <si>
+    <t>0.38% in 545s</t>
+  </si>
+  <si>
+    <t>DCAP_3_4_2_10000</t>
+  </si>
+  <si>
+    <t>a.gap 82%, d.gap 7% in 2270s</t>
+  </si>
+  <si>
+    <t>a.gap 16% in 1580s</t>
+  </si>
+  <si>
+    <t>a.gap &gt;1% in 700s</t>
+  </si>
+  <si>
+    <t>a.gap 23% in 9000s</t>
+  </si>
+  <si>
+    <t>0.27% in 3000s (1800)</t>
+  </si>
+  <si>
+    <t>a.gap 1.16% in 4900s, in 10000s</t>
+  </si>
+  <si>
+    <t>a.gap 24%, d.gap 0.01%, in 8193s (db: 9663, pb: 9664)</t>
+  </si>
+  <si>
+    <t>gap is quite big (e.g., obj: -359, best int: 204)</t>
+  </si>
+  <si>
+    <t>a.gap 8%, d.gap 7%, in 18000s (db: -300, pb: -320)</t>
+  </si>
+  <si>
+    <t>remark</t>
+  </si>
+  <si>
+    <t>this instance DSP is better!</t>
   </si>
 </sst>
 </file>
@@ -1180,20 +1210,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1237,6 +1255,27 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1670,87 +1709,82 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView zoomScale="213" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="17.6640625" style="5"/>
-    <col min="2" max="2" width="29.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18" style="6"/>
-    <col min="4" max="4" width="13.6640625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="11.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13" style="2" customWidth="1"/>
+    <col min="3" max="3" width="38.83203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" style="2" customWidth="1"/>
     <col min="5" max="1025" width="11.5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="25" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:3">
+      <c r="A2" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="24"/>
+      <c r="C2" s="25">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:3">
+      <c r="A3" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="5" t="s">
+      <c r="B3" s="24"/>
+      <c r="C3" s="25" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="C4" s="25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="B6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="B7" s="4"/>
-      <c r="C7" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>145</v>
+    <row r="5" spans="1:3">
+      <c r="A5" s="24"/>
+      <c r="B5" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="24"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="25" t="s">
+        <v>147</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B6:B7"/>
+  <mergeCells count="5">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="A4:A6"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -1763,10 +1797,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F6" sqref="A1:F6"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
@@ -1781,120 +1815,125 @@
     <col min="8" max="1025" width="11.5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="5" customFormat="1">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:7" s="1" customFormat="1">
+      <c r="A1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="D2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="E2" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="F2" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="C3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="5" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="6">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6" t="s">
+      <c r="D3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="C4" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E4" t="s">
         <v>22</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F4" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="6"/>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="6">
-        <v>2</v>
-      </c>
-      <c r="B3" s="6" t="s">
+    </row>
+    <row r="5" spans="1:7" ht="15">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C5" s="2"/>
+      <c r="D5" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="D6" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E6" t="s">
+        <v>108</v>
+      </c>
+      <c r="F6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15">
-      <c r="A4" s="6">
-        <v>3</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="15">
-      <c r="A5" s="6">
-        <v>4</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="F5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="6">
-        <v>5</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="E6" t="s">
-        <v>115</v>
-      </c>
-      <c r="F6" t="s">
-        <v>30</v>
+    <row r="7" spans="1:7">
+      <c r="A7" s="2">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1909,65 +1948,66 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="17.83203125"/>
-    <col min="2" max="2" width="30" style="6"/>
-    <col min="3" max="3" width="15.6640625" style="6"/>
-    <col min="4" max="4" width="44.5"/>
-    <col min="5" max="1025" width="11.5"/>
+    <col min="2" max="2" width="30" style="2"/>
+    <col min="3" max="3" width="21.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.1640625" customWidth="1"/>
+    <col min="5" max="5" width="26.33203125" customWidth="1"/>
+    <col min="6" max="1025" width="11.5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="5" t="s">
-        <v>33</v>
+      <c r="A1" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="B1"/>
       <c r="C1"/>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>35</v>
+      <c r="A2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="C2"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>37</v>
+        <v>29</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>30</v>
       </c>
       <c r="C3"/>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B4" s="3"/>
+        <v>31</v>
+      </c>
+      <c r="B4" s="20"/>
       <c r="C4"/>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B5" s="3"/>
+        <v>32</v>
+      </c>
+      <c r="B5" s="20"/>
       <c r="C5"/>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B6" s="3"/>
+        <v>33</v>
+      </c>
+      <c r="B6" s="20"/>
       <c r="C6"/>
     </row>
     <row r="7" spans="1:4">
@@ -1975,7 +2015,7 @@
       <c r="C7"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="5"/>
+      <c r="A8" s="1"/>
       <c r="B8"/>
       <c r="C8"/>
     </row>
@@ -2004,83 +2044,134 @@
       <c r="C14"/>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="5" t="s">
-        <v>41</v>
+      <c r="A15" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="B15"/>
       <c r="C15"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B16" s="8" t="s">
+      <c r="A16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D16" s="8" t="s">
+      <c r="C18" s="20"/>
+      <c r="D18" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
-      <c r="A17" t="s">
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
         <v>44</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B19" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="20"/>
+      <c r="D19" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C17" s="3" t="s">
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
         <v>46</v>
       </c>
-      <c r="D17" t="s">
+      <c r="B20" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="20"/>
+      <c r="D20" s="6" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
-      <c r="A18" t="s">
+    <row r="21" spans="1:5">
+      <c r="B21"/>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="B22" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C18" s="3"/>
-      <c r="D18" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" t="s">
-        <v>51</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="10" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" t="s">
-        <v>53</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="10" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="B21"/>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="B22" s="11" t="s">
-        <v>55</v>
-      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2123,72 +2214,72 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView topLeftCell="A14" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="24.83203125"/>
-    <col min="2" max="2" width="24.1640625" style="6"/>
-    <col min="3" max="3" width="22.6640625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="24.1640625" style="2"/>
+    <col min="3" max="3" width="22.6640625" style="2" customWidth="1"/>
     <col min="4" max="5" width="47.5" bestFit="1" customWidth="1"/>
     <col min="6" max="1025" width="11.5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="5" t="s">
-        <v>33</v>
+      <c r="A1" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="B1"/>
       <c r="C1"/>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>35</v>
+      <c r="A2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="C2"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B3" s="3"/>
+        <v>49</v>
+      </c>
+      <c r="B3" s="20"/>
       <c r="C3"/>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B4" s="3"/>
+        <v>50</v>
+      </c>
+      <c r="B4" s="20"/>
       <c r="C4"/>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>58</v>
-      </c>
-      <c r="B5" s="3"/>
+        <v>51</v>
+      </c>
+      <c r="B5" s="20"/>
       <c r="C5"/>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>59</v>
-      </c>
-      <c r="B6" s="3"/>
+        <v>52</v>
+      </c>
+      <c r="B6" s="20"/>
       <c r="C6"/>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="B7"/>
       <c r="C7"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="5"/>
+      <c r="A8" s="1"/>
       <c r="B8"/>
       <c r="C8"/>
     </row>
@@ -2197,206 +2288,206 @@
       <c r="C9"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="5" t="s">
-        <v>41</v>
+      <c r="A10" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="B10"/>
       <c r="C10"/>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C11" s="8" t="s">
+      <c r="A11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>35</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="12.75" customHeight="1">
       <c r="A12" t="s">
-        <v>61</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>63</v>
+        <v>54</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>64</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
+        <v>57</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>66</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
+        <v>59</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>67</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
+        <v>60</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>68</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
+        <v>61</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>69</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
+        <v>62</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>70</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
+        <v>63</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>71</v>
-      </c>
-      <c r="B19" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B19" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="D22" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="D22" s="5" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="D23" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="D24" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="6"/>
-      <c r="B29" s="16" t="s">
+      <c r="A29" s="2"/>
+      <c r="B29" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="C29" s="16"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="16"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="22"/>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="B30" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="C30" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="D30" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="E30" s="15" t="s">
-        <v>122</v>
+      <c r="A30" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>56</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>137</v>
+        <v>49</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>129</v>
       </c>
       <c r="D31" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="E31" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>130</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="E32" s="6" t="s">
-        <v>156</v>
+        <v>122</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="15">
       <c r="A33" t="s">
-        <v>131</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="D33" s="22"/>
+        <v>123</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D33" s="18"/>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>133</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>135</v>
+        <v>125</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="35" spans="1:5">
-      <c r="B35" s="6" t="s">
-        <v>134</v>
+      <c r="B35" s="2" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="15">
-      <c r="E39" s="19"/>
+      <c r="E39" s="15"/>
     </row>
     <row r="40" spans="1:5" ht="15">
-      <c r="E40" s="19"/>
+      <c r="E40" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2427,51 +2518,51 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="17.83203125"/>
-    <col min="2" max="2" width="31.33203125" style="6"/>
-    <col min="3" max="3" width="15.6640625" style="6"/>
+    <col min="2" max="2" width="31.33203125" style="2"/>
+    <col min="3" max="3" width="15.6640625" style="2"/>
     <col min="4" max="4" width="50.1640625"/>
     <col min="5" max="1025" width="11.5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="5" t="s">
-        <v>33</v>
+      <c r="A1" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="B1"/>
       <c r="C1"/>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>35</v>
+      <c r="A2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="C2"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B3" s="3"/>
+        <v>68</v>
+      </c>
+      <c r="B3" s="20"/>
       <c r="C3"/>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>76</v>
-      </c>
-      <c r="B4" s="3"/>
+        <v>69</v>
+      </c>
+      <c r="B4" s="20"/>
       <c r="C4"/>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>77</v>
-      </c>
-      <c r="B5" s="3"/>
+        <v>70</v>
+      </c>
+      <c r="B5" s="20"/>
       <c r="C5"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="B6" s="3"/>
+      <c r="B6" s="20"/>
       <c r="C6"/>
     </row>
     <row r="7" spans="1:4">
@@ -2479,7 +2570,7 @@
       <c r="C7"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="5"/>
+      <c r="A8" s="1"/>
       <c r="B8"/>
       <c r="C8"/>
     </row>
@@ -2508,79 +2599,79 @@
       <c r="C14"/>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="5" t="s">
-        <v>41</v>
+      <c r="A15" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="B15"/>
       <c r="C15"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C16" s="8" t="s">
+      <c r="A16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D16" s="8" t="s">
-        <v>43</v>
+      <c r="C16" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
+        <v>71</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="B18" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C18" s="20"/>
+      <c r="D18" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="C19" s="20"/>
+      <c r="D19" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="C20" s="20"/>
+      <c r="D20" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="D21" s="6" t="s">
         <v>78</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="B18" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="C18" s="3"/>
-      <c r="D18" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="C19" s="3"/>
-      <c r="D19" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="C20" s="3"/>
-      <c r="D20" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="D21" s="10" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="D22" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="D23" s="10" t="s">
-        <v>87</v>
+      <c r="D23" s="6" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="D24" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -2601,54 +2692,54 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView topLeftCell="A9" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="18.83203125" customWidth="1"/>
-    <col min="2" max="2" width="31.33203125" style="6"/>
-    <col min="3" max="3" width="23.33203125" style="6" customWidth="1"/>
-    <col min="4" max="4" width="37.6640625" customWidth="1"/>
-    <col min="5" max="5" width="22.83203125" customWidth="1"/>
+    <col min="2" max="2" width="31.33203125" style="2"/>
+    <col min="3" max="3" width="23.33203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="49" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.33203125" customWidth="1"/>
     <col min="6" max="6" width="23.33203125" customWidth="1"/>
     <col min="7" max="1025" width="11.5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="5" t="s">
-        <v>33</v>
+      <c r="A1" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="B1"/>
       <c r="C1"/>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>35</v>
+      <c r="A2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="C2"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B3" s="3"/>
+        <v>82</v>
+      </c>
+      <c r="B3" s="20"/>
       <c r="C3"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="B4" s="3"/>
+      <c r="B4" s="20"/>
       <c r="C4"/>
     </row>
     <row r="5" spans="1:4">
-      <c r="B5" s="3"/>
+      <c r="B5" s="20"/>
       <c r="C5"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="B6" s="3"/>
+      <c r="B6" s="20"/>
       <c r="C6"/>
     </row>
     <row r="7" spans="1:4">
@@ -2656,7 +2747,7 @@
       <c r="C7"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="5"/>
+      <c r="A8" s="1"/>
       <c r="B8"/>
       <c r="C8"/>
     </row>
@@ -2685,135 +2776,137 @@
       <c r="C14"/>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="5" t="s">
-        <v>41</v>
+      <c r="A15" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="B15"/>
       <c r="C15"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C16" s="8" t="s">
+      <c r="A16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D16" s="8" t="s">
-        <v>43</v>
+      <c r="C16" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>92</v>
+      <c r="A17" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="B17" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="3"/>
-      <c r="B18" s="1">
+      <c r="A18" s="20"/>
+      <c r="B18" s="23">
         <v>100</v>
       </c>
-      <c r="C18" s="3"/>
+      <c r="C18" s="20"/>
       <c r="D18" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="3"/>
-      <c r="B19" s="1">
+      <c r="A19" s="20"/>
+      <c r="B19" s="23">
         <v>1000</v>
       </c>
-      <c r="C19" s="3"/>
+      <c r="C19" s="20"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="3"/>
-      <c r="B20" s="1">
+      <c r="A20" s="20"/>
+      <c r="B20" s="23">
         <v>10000</v>
       </c>
-      <c r="C20" s="3"/>
+      <c r="C20" s="20"/>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="3"/>
-      <c r="B21" s="1">
+      <c r="A21" s="20"/>
+      <c r="B21" s="23">
         <v>100000</v>
       </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="6"/>
-      <c r="B25" s="16" t="s">
+      <c r="A25" s="2"/>
+      <c r="B25" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="17" t="s">
-        <v>125</v>
-      </c>
-      <c r="B26" s="15" t="s">
+      <c r="A26" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C26" s="15" t="s">
+      <c r="C27" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E28" s="2"/>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="D26" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="E26" s="15" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="18" t="s">
-        <v>123</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="18" t="s">
-        <v>124</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2834,75 +2927,77 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="24.83203125"/>
-    <col min="2" max="2" width="28.5" style="6"/>
-    <col min="3" max="3" width="15.6640625" style="6"/>
-    <col min="4" max="4" width="41"/>
-    <col min="5" max="1025" width="11.5"/>
+    <col min="1" max="1" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.33203125" customWidth="1"/>
+    <col min="5" max="5" width="45.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="1025" width="11.5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="5" t="s">
-        <v>33</v>
+      <c r="A1" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="B1"/>
       <c r="C1"/>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>94</v>
+      <c r="A2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>87</v>
       </c>
       <c r="C2"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>95</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>96</v>
+        <v>88</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>89</v>
       </c>
       <c r="C3"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>96</v>
+      <c r="A4" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>89</v>
       </c>
       <c r="C4"/>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>98</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>99</v>
+        <v>91</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>92</v>
       </c>
       <c r="C5"/>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>100</v>
-      </c>
-      <c r="B6" s="13">
+        <v>93</v>
+      </c>
+      <c r="B6" s="9">
         <v>42134</v>
       </c>
       <c r="C6"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="5"/>
+      <c r="A7" s="1"/>
       <c r="B7"/>
       <c r="C7"/>
     </row>
@@ -2931,66 +3026,111 @@
       <c r="C13"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="5" t="s">
-        <v>41</v>
+      <c r="A14" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="B14"/>
       <c r="C14"/>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" s="8" t="s">
+      <c r="A15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>35</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
+        <v>88</v>
+      </c>
+      <c r="B16" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-    </row>
-    <row r="18" spans="1:4">
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="B17" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>98</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-    </row>
-    <row r="19" spans="1:4">
+        <v>91</v>
+      </c>
+      <c r="B18" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>103</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
+        <v>96</v>
+      </c>
+      <c r="B19" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="14"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="14"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3011,55 +3151,55 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="24.83203125"/>
-    <col min="2" max="2" width="24.1640625" style="6"/>
-    <col min="3" max="3" width="21.1640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.1640625" style="2"/>
+    <col min="3" max="3" width="21.1640625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="42.33203125" customWidth="1"/>
     <col min="5" max="5" width="28.1640625" customWidth="1"/>
     <col min="6" max="1025" width="11.5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="5" t="s">
-        <v>33</v>
+      <c r="A1" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="B1"/>
       <c r="C1"/>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>94</v>
+      <c r="A2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>87</v>
       </c>
       <c r="C2"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="B3" s="9"/>
+      <c r="B3" s="5"/>
       <c r="C3"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="12"/>
-      <c r="B4" s="7"/>
+      <c r="A4" s="8"/>
+      <c r="B4" s="3"/>
       <c r="C4"/>
     </row>
     <row r="5" spans="1:4">
-      <c r="B5" s="7"/>
+      <c r="B5" s="3"/>
       <c r="C5"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="B6" s="13"/>
+      <c r="B6" s="9"/>
       <c r="C6"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="5"/>
+      <c r="A7" s="1"/>
       <c r="B7"/>
       <c r="C7"/>
     </row>
@@ -3088,151 +3228,151 @@
       <c r="C13"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="5" t="s">
-        <v>41</v>
+      <c r="A14" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="B14"/>
       <c r="C14"/>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" s="8" t="s">
+      <c r="A15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>35</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>104</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
+        <v>97</v>
+      </c>
+      <c r="B16" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
+      <c r="A17" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="B17" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>108</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
+        <v>101</v>
+      </c>
+      <c r="B18" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>109</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
+        <v>102</v>
+      </c>
+      <c r="B19" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>110</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
+      </c>
+      <c r="B20" s="23" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>111</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
+      </c>
+      <c r="B21" s="23" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>112</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
+      </c>
+      <c r="B22" s="23" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
+        <v>106</v>
+      </c>
+      <c r="B23" s="23" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="B26" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="B26" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="C26" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="D26" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="E26" s="15" t="s">
-        <v>122</v>
+      <c r="C26" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
+        <v>131</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D27" t="s">
+        <v>137</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="15">
+      <c r="B28" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D28" s="17" t="s">
         <v>139</v>
       </c>
-      <c r="B27" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="D27" t="s">
-        <v>146</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="15">
-      <c r="B28" s="6" t="s">
+      <c r="E28" s="16" t="s">
         <v>142</v>
       </c>
-      <c r="D28" s="21" t="s">
-        <v>150</v>
-      </c>
-      <c r="E28" s="20" t="s">
-        <v>153</v>
-      </c>
     </row>
     <row r="29" spans="1:5">
-      <c r="D29" s="21" t="s">
-        <v>151</v>
-      </c>
-      <c r="E29" s="18" t="s">
-        <v>154</v>
+      <c r="D29" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="E29" s="14" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
